--- a/media/output/result/bpic2015_4_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2015_4_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -650,25 +650,25 @@
         <v>86</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.8604651162790697</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9249999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -737,25 +737,25 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
         <v>73</v>
       </c>
-      <c r="D11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.8588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9240506329113923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,25 +766,25 @@
         <v>85</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
         <v>73</v>
       </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>0.8588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9240506329113923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/media/output/result/bpic2015_4_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2015_4_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -650,25 +650,25 @@
         <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.9249999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -737,25 +737,25 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.8588235294117647</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.9240506329113923</v>
       </c>
     </row>
     <row r="12">
@@ -766,25 +766,25 @@
         <v>85</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.8588235294117647</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.9240506329113923</v>
       </c>
     </row>
     <row r="13">
